--- a/04_CPlusPlus_DataStructures/019 map(键值对).xlsx
+++ b/04_CPlusPlus_DataStructures/019 map(键值对).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus_DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAE413-AFCF-49BA-82A9-22ECCED55FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99686AF3-7282-4E98-982B-97A844CDDA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4056" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>map(键值对)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,12 +64,16 @@
     <t>2、测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>底层实现 红黑树(非严格的搜索二叉树)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +149,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -173,10 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -190,6 +203,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1187,7 +1201,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1204,6 +1218,9 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
